--- a/biology/Médecine/Jacob_Plange-Rhule/Jacob_Plange-Rhule.xlsx
+++ b/biology/Médecine/Jacob_Plange-Rhule/Jacob_Plange-Rhule.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jacob Plange-Rhule (né le 27 juillet 1957 à Winneba et mort le 10 avril 2020 à Accra) est un médecin spécialisé en néphrologie et un universitaire ghanéen[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jacob Plange-Rhule (né le 27 juillet 1957 à Winneba et mort le 10 avril 2020 à Accra) est un médecin spécialisé en néphrologie et un universitaire ghanéen.
 </t>
         </is>
       </c>
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Diplômé en médecine et chirurgie de l'Université des sciences et technologies Kwame Nkrumah (Kumasi) en 1984, il obtient un doctorat en physiologie du rein de l'Université Victoria de Manchester[2].
-Président de l'Association médicale du Ghana et de l'Association ghanéenne du rein, il exerce au département de médecine de l'hôpital universitaire Komfo Anokye à Kumasi. Il y fonde la clinique du rein et de l'hypertension, qu'il dirige pendant plus de vingt ans. Il dirige également le département de physiologie de l'École de médecine de Kumasi[1].
-À partir de 2015 et jusqu'à sa mort, il est recteur du Collège des médecins et chirurgiens du Ghana[1].
-Il meurt le 10 avril 2020 après avoir contracté le covid-19[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Diplômé en médecine et chirurgie de l'Université des sciences et technologies Kwame Nkrumah (Kumasi) en 1984, il obtient un doctorat en physiologie du rein de l'Université Victoria de Manchester.
+Président de l'Association médicale du Ghana et de l'Association ghanéenne du rein, il exerce au département de médecine de l'hôpital universitaire Komfo Anokye à Kumasi. Il y fonde la clinique du rein et de l'hypertension, qu'il dirige pendant plus de vingt ans. Il dirige également le département de physiologie de l'École de médecine de Kumasi.
+À partir de 2015 et jusqu'à sa mort, il est recteur du Collège des médecins et chirurgiens du Ghana.
+Il meurt le 10 avril 2020 après avoir contracté le covid-19.
 </t>
         </is>
       </c>
